--- a/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8072407-06:00</t>
+    <t>2026-02-09T22:05:43.3676405-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3676405-06:00</t>
+    <t>2026-02-17T14:42:26.9287871-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9287871-06:00</t>
+    <t>2026-02-20T11:59:20.9654302-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>SubstanceSourceMaterial</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
+++ b/StructureDefinition-profile-SubstanceSourceMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9654302-06:00</t>
+    <t>2026-02-21T13:36:54.3696483-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>SubstanceSourceMaterial</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
